--- a/image/coverageeligibilityresponse.xlsx
+++ b/image/coverageeligibilityresponse.xlsx
@@ -1224,45 +1224,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.21875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.73046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.6328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="61.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.44140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="62.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="54.171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.33203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/coverageeligibilityresponse.xlsx
+++ b/image/coverageeligibilityresponse.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="345">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -546,10 +546,6 @@
   </si>
   <si>
     <t>CoverageEligibilityResponse.disposition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Disposition Message</t>
@@ -1224,45 +1220,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.73046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.21875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="66.44140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="62.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="120.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="67.6328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="61.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.33203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="54.171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3409,17 +3405,17 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3483,7 +3479,7 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>40</v>
@@ -3497,7 +3493,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3520,17 +3516,17 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3579,7 +3575,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>49</v>
@@ -3608,7 +3604,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3631,19 +3627,19 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3692,7 +3688,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3704,7 +3700,7 @@
         <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>40</v>
@@ -3721,7 +3717,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3744,13 +3740,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3801,36 +3797,36 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3859,7 +3855,7 @@
         <v>95</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>97</v>
@@ -3912,7 +3908,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3936,16 +3932,16 @@
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3967,10 +3963,10 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>97</v>
@@ -4025,7 +4021,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -4054,7 +4050,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4077,17 +4073,17 @@
         <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4136,7 +4132,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>49</v>
@@ -4165,7 +4161,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4188,17 +4184,17 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4247,7 +4243,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4276,7 +4272,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4299,17 +4295,17 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4358,7 +4354,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4387,7 +4383,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4410,13 +4406,13 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4467,7 +4463,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4479,7 +4475,7 @@
         <v>40</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>40</v>
@@ -4496,7 +4492,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4519,13 +4515,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4576,36 +4572,36 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4634,7 +4630,7 @@
         <v>95</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>97</v>
@@ -4687,7 +4683,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4711,16 +4707,16 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4742,10 +4738,10 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>97</v>
@@ -4800,7 +4796,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4829,7 +4825,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4852,19 +4848,19 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4889,14 +4885,14 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>232</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4913,7 +4909,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4942,11 +4938,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -4965,19 +4961,19 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -5002,14 +4998,14 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>240</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5026,7 +5022,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5055,7 +5051,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5078,19 +5074,19 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5115,14 +5111,14 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5139,7 +5135,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5168,7 +5164,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5191,17 +5187,17 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5250,7 +5246,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5279,7 +5275,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5302,17 +5298,17 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5361,7 +5357,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5390,7 +5386,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5413,19 +5409,19 @@
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5474,7 +5470,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5503,7 +5499,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5526,19 +5522,19 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5587,7 +5583,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5616,7 +5612,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5639,17 +5635,17 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5674,14 +5670,14 @@
         <v>40</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="Y40" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>272</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5698,7 +5694,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5727,7 +5723,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5750,17 +5746,17 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5785,14 +5781,14 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5809,7 +5805,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5838,7 +5834,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5861,17 +5857,17 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5896,14 +5892,14 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5920,7 +5916,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5949,7 +5945,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5972,13 +5968,13 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6029,7 +6025,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6041,7 +6037,7 @@
         <v>40</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>40</v>
@@ -6058,7 +6054,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6081,13 +6077,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6138,36 +6134,36 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6196,7 +6192,7 @@
         <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>97</v>
@@ -6249,7 +6245,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6273,16 +6269,16 @@
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6304,10 +6300,10 @@
         <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>97</v>
@@ -6362,7 +6358,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6391,7 +6387,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6414,19 +6410,19 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K47" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="L47" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6451,14 +6447,14 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>295</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6475,7 +6471,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>49</v>
@@ -6504,7 +6500,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6527,17 +6523,17 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6586,7 +6582,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6615,7 +6611,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6638,17 +6634,17 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6697,7 +6693,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6726,7 +6722,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6749,17 +6745,17 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
@@ -6808,7 +6804,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6837,7 +6833,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6860,17 +6856,17 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6895,14 +6891,14 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y51" t="s" s="2">
-        <v>314</v>
-      </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
       </c>
@@ -6919,7 +6915,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6948,7 +6944,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6974,14 +6970,14 @@
         <v>62</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -7030,7 +7026,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7059,7 +7055,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7082,17 +7078,17 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7141,7 +7137,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7162,15 +7158,15 @@
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>324</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7193,19 +7189,19 @@
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7230,52 +7226,52 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>40</v>
@@ -7283,7 +7279,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7306,17 +7302,17 @@
         <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7365,7 +7361,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7377,7 +7373,7 @@
         <v>40</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>40</v>
@@ -7394,7 +7390,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7417,13 +7413,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7474,36 +7470,36 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7532,7 +7528,7 @@
         <v>95</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>97</v>
@@ -7585,7 +7581,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7609,16 +7605,16 @@
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7640,10 +7636,10 @@
         <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>97</v>
@@ -7698,7 +7694,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7727,7 +7723,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7750,17 +7746,17 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7785,14 +7781,14 @@
         <v>40</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>40</v>
       </c>
@@ -7809,7 +7805,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>49</v>
